--- a/inst/extdata/Analogs_example.xlsx
+++ b/inst/extdata/Analogs_example.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USB/BOG/Flamingo/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rrfg/PROJECTS/Flamingo/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3920" windowWidth="31720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -120,6 +123,12 @@
   </si>
   <si>
     <t>Une</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -160,7 +169,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,64 +469,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -531,37 +546,37 @@
         <v>26</v>
       </c>
       <c r="E2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>-74</v>
+      </c>
+      <c r="G2">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>8300</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3600</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>220</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1.0720000000000001</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>3.8</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>150</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
       <c r="O2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -573,10 +588,10 @@
         <v>2</v>
       </c>
       <c r="S2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -585,10 +600,16 @@
         <v>10</v>
       </c>
       <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -602,64 +623,70 @@
         <v>26</v>
       </c>
       <c r="E3">
+        <v>4.55</v>
+      </c>
+      <c r="F3">
+        <v>-74.099999999999994</v>
+      </c>
+      <c r="G3">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>8400</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>3700</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>225</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.0449999999999999</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>60</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -673,38 +700,38 @@
         <v>26</v>
       </c>
       <c r="E4">
+        <v>4.7</v>
+      </c>
+      <c r="F4">
+        <v>-74.2</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>250</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>8500</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3800</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>230</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.9</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>520</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
       <c r="P4">
         <v>10</v>
       </c>
@@ -712,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -727,10 +754,16 @@
         <v>5</v>
       </c>
       <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -744,46 +777,46 @@
         <v>26</v>
       </c>
       <c r="E5">
+        <v>4.57</v>
+      </c>
+      <c r="F5">
+        <v>-74.3</v>
+      </c>
+      <c r="G5">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>600</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>8600</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>3900</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>235</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.3</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>650</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>25</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
       <c r="P5">
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -798,10 +831,16 @@
         <v>5</v>
       </c>
       <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -815,64 +854,70 @@
         <v>27</v>
       </c>
       <c r="E6">
+        <v>4.8</v>
+      </c>
+      <c r="F6">
+        <v>-74.400000000000006</v>
+      </c>
+      <c r="G6">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>8100</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3500</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>215</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>1.0549999999999999</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>35</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>80</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
       <c r="O6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
         <v>15</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -886,64 +931,70 @@
         <v>28</v>
       </c>
       <c r="E7">
+        <v>4.62</v>
+      </c>
+      <c r="F7">
+        <v>-74.5</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>8000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>3400</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>212</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>1.0549999999999999</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>90</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
       <c r="O7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
         <v>15</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -957,60 +1008,66 @@
         <v>29</v>
       </c>
       <c r="E8">
+        <v>4.66</v>
+      </c>
+      <c r="F8">
+        <v>-74.599999999999994</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>7800</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>3200</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>208</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>1.0549999999999999</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>48</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>70</v>
       </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
         <v>15</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>42</v>
       </c>
     </row>
